--- a/2024 Game Day Info/Week 10_ PHL @ PORT (Sat)/Game Day Packet - Portland vs Philly 6_8_24.xlsx
+++ b/2024 Game Day Info/Week 10_ PHL @ PORT (Sat)/Game Day Packet - Portland vs Philly 6_8_24.xlsx
@@ -7,8 +7,8 @@
     <sheet state="visible" name="Run of Show" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Game Day Info (HOME)" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Emergency Action Contacts (HOME" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Home Team Roster" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Away Team Info" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Away Team Info" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Home Team Roster" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Away Team Roster" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="255">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -133,9 +133,15 @@
     <t>Pre-Game Coordinator Name</t>
   </si>
   <si>
+    <t>Richard Young</t>
+  </si>
+  <si>
     <t>Pre-Game Coordinator Contact Number</t>
   </si>
   <si>
+    <t>207-807-8727</t>
+  </si>
+  <si>
     <t>Game Day Coordinator Name</t>
   </si>
   <si>
@@ -148,9 +154,15 @@
     <t>Venue Address</t>
   </si>
   <si>
+    <t>Fitzpatrick Stadium, 165 Park Ave, Portland, ME 04101</t>
+  </si>
+  <si>
     <t>Field Type</t>
   </si>
   <si>
+    <t>Turf</t>
+  </si>
+  <si>
     <t>Locker Rooms?</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>Parking Instructions</t>
   </si>
   <si>
+    <t>Parking lot available right next to stadium (Free)</t>
+  </si>
+  <si>
     <t>What time must teams exit the venue?</t>
   </si>
   <si>
@@ -175,12 +190,21 @@
     <t>Livestream or Tape Delay</t>
   </si>
   <si>
+    <t>Livestream</t>
+  </si>
+  <si>
     <t>On-Site Livestream/Video Producer Name</t>
   </si>
   <si>
+    <t>Connor Donovan</t>
+  </si>
+  <si>
     <t>On-Site Livestream/Video Producer Contact Number</t>
   </si>
   <si>
+    <t>cnnrdonovan@gmail.com</t>
+  </si>
+  <si>
     <t>FOOD</t>
   </si>
   <si>
@@ -190,9 +214,15 @@
     <t>List at least three restaurants within 15 minutes of the venue</t>
   </si>
   <si>
+    <t>Too many to provide! We will be providing food post game</t>
+  </si>
+  <si>
     <t>Are you able to provide meals for the away team? If so, please indicate what you will provide.</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>POST/PRE-GAME EVENTS</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t>Will the national anthem be played?</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Can away team sell merch?</t>
   </si>
   <si>
@@ -244,12 +277,24 @@
     <t>Primary Responder Name</t>
   </si>
   <si>
+    <t>Sarah Richardson</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
+    <t>207-831-1747</t>
+  </si>
+  <si>
     <t>Secondary Responder Name</t>
   </si>
   <si>
+    <t>Ian Engler, MD</t>
+  </si>
+  <si>
+    <t>978-460-4260</t>
+  </si>
+  <si>
     <t>Designated Staff Member Name</t>
   </si>
   <si>
@@ -257,6 +302,12 @@
   </si>
   <si>
     <t>Nearest Hospital(s)</t>
+  </si>
+  <si>
+    <t>Maine Medical 22 Brahmhall St Portland ME 04101</t>
+  </si>
+  <si>
+    <t>207-662-0111</t>
   </si>
   <si>
     <t>Nearest Urgent Care</t>
@@ -303,6 +354,30 @@
     </r>
   </si>
   <si>
+    <t>Away Team Game Day Information</t>
+  </si>
+  <si>
+    <t>Completed by away team. Due Sunday prior to match.</t>
+  </si>
+  <si>
+    <t>EXPECTED VENUE ARRIVAL TIME</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>Method of Transport</t>
+  </si>
+  <si>
+    <t>PERSONNEL</t>
+  </si>
+  <si>
+    <t>Total Number of Players Attending</t>
+  </si>
+  <si>
+    <t>Total Number of Staff Attending (Coaches, Managers, etc.)</t>
+  </si>
+  <si>
     <t>HOME TEAM ROSTER</t>
   </si>
   <si>
@@ -310,6 +385,9 @@
   </si>
   <si>
     <t>TEAM</t>
+  </si>
+  <si>
+    <t>Portland</t>
   </si>
   <si>
     <r>
@@ -381,28 +459,379 @@
     <t>Fun Facts</t>
   </si>
   <si>
-    <t>Away Team Game Day Information</t>
-  </si>
-  <si>
-    <t>Completed by away team. Due Sunday prior to match.</t>
-  </si>
-  <si>
-    <t>EXPECTED VENUE ARRIVAL TIME</t>
-  </si>
-  <si>
-    <t>TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>Method of Transport</t>
-  </si>
-  <si>
-    <t>PERSONNEL</t>
-  </si>
-  <si>
-    <t>Total Number of Players Attending</t>
-  </si>
-  <si>
-    <t>Total Number of Staff Attending (Coaches, Managers, etc.)</t>
+    <t>Liv Player</t>
+  </si>
+  <si>
+    <t>she/her</t>
+  </si>
+  <si>
+    <t>Gulf shadow, Florida</t>
+  </si>
+  <si>
+    <t>Sprocket</t>
+  </si>
+  <si>
+    <t>Sprocket, Harvard (coach, former player)</t>
+  </si>
+  <si>
+    <t>I have webbed toes!</t>
+  </si>
+  <si>
+    <t>Adelle Pitsas</t>
+  </si>
+  <si>
+    <t>Milford, NH</t>
+  </si>
+  <si>
+    <t>The Buoy Association</t>
+  </si>
+  <si>
+    <t>The Buoy Association (Mixed, ME), Scarecrow (Mixed, NH), Naaaasty (Womxn, Christchurch, NZ), Hampshire College Red Scare (Mixed) and Chaos Reign (Women and non-binary)</t>
+  </si>
+  <si>
+    <t>I'm on a quest to make the best homemade pizza</t>
+  </si>
+  <si>
+    <t>Chloë Rowse</t>
+  </si>
+  <si>
+    <t>chloe rowse (rhymes w/ house)</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Nicki Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Baecher </t>
+  </si>
+  <si>
+    <t>Bae</t>
+  </si>
+  <si>
+    <t>lauren bay-cher</t>
+  </si>
+  <si>
+    <t>Amherst, MA</t>
+  </si>
+  <si>
+    <t>I'm a certified Pilates Instructor</t>
+  </si>
+  <si>
+    <t>Samantha Munson</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>South Portland</t>
+  </si>
+  <si>
+    <t>i have owned 16 vehicles so far</t>
+  </si>
+  <si>
+    <t>Caitlin Fitzgerald</t>
+  </si>
+  <si>
+    <t>Fitz</t>
+  </si>
+  <si>
+    <t>Shawnee, KS</t>
+  </si>
+  <si>
+    <t>Slow, Brutesquad, Kansas Betty, Coaching BU</t>
+  </si>
+  <si>
+    <t>Erin Rea (C)</t>
+  </si>
+  <si>
+    <t>erin ray</t>
+  </si>
+  <si>
+    <t>she/they</t>
+  </si>
+  <si>
+    <t>Boise, Idaho</t>
+  </si>
+  <si>
+    <t>Slow, Harvard Quasar - Coach</t>
+  </si>
+  <si>
+    <t>I'm bad at singing</t>
+  </si>
+  <si>
+    <t>Kelsey Devlin (C)</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Philly GMG, Philly AMP, Boston Wild Card, Boston Slow, University of Delaware Sideshow (player)</t>
+  </si>
+  <si>
+    <t>Olivia Hampton</t>
+  </si>
+  <si>
+    <t>Warren, NJ</t>
+  </si>
+  <si>
+    <t>Boston Slow, Boston College</t>
+  </si>
+  <si>
+    <t>I dip in the ocean at least once a week in the winter with Chloe and Hannah</t>
+  </si>
+  <si>
+    <t>Colette Pellegrini (C)</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Brute Squad</t>
+  </si>
+  <si>
+    <t>Brute Squad, Sprocket, Snake Country, Vice, WPI Pithons</t>
+  </si>
+  <si>
+    <t>I was in the 2014 superbowl halftime show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annika Chan </t>
+  </si>
+  <si>
+    <t>Ahn-ika chan</t>
+  </si>
+  <si>
+    <t>Millington, NJ</t>
+  </si>
+  <si>
+    <t>Wild Card</t>
+  </si>
+  <si>
+    <t>Wild Card, Boston University (Player from 2014-2018 and coached from 2019-2023), Currently coaching Lexington High School Girls Ultimate Team</t>
+  </si>
+  <si>
+    <t>I can sing all the High school musical songs from memory.</t>
+  </si>
+  <si>
+    <t>Elana Schwam</t>
+  </si>
+  <si>
+    <t>Shwam</t>
+  </si>
+  <si>
+    <t>ee-LAH-nah shh-wahm</t>
+  </si>
+  <si>
+    <t>Medford, MA</t>
+  </si>
+  <si>
+    <t>Brute Squad, Slow, Umass Ladyzoo 2007-2010; Bentley wobus Coach 2010-2014; Brown Disco inferno Coach 2018-2020; Brandeis Banshee Coach 2021-2022</t>
+  </si>
+  <si>
+    <t>I'm a mom and I currently am kicking cancers ass</t>
+  </si>
+  <si>
+    <t>Jean Huang</t>
+  </si>
+  <si>
+    <t>gene whong</t>
+  </si>
+  <si>
+    <t>Acton, MA</t>
+  </si>
+  <si>
+    <t>Sprocket, Heist, Spicy Tuna, Prion, University of Illinois Urbana Champaign</t>
+  </si>
+  <si>
+    <t>Won Taylor Swift Eras tour tickets from a radio station (Thanks for entering me Chewy!)</t>
+  </si>
+  <si>
+    <t>Megan Wilson</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Boston Brute Squad, Tufts EWO - Coach</t>
+  </si>
+  <si>
+    <t>Loves Medford</t>
+  </si>
+  <si>
+    <t>Yuge Xiao</t>
+  </si>
+  <si>
+    <t>you-gah sheow</t>
+  </si>
+  <si>
+    <t>Berwyn, PA</t>
+  </si>
+  <si>
+    <t>Boston Brütesquad, Philadelphia AMP, Philadelphia Green, New York Last Call, 2019 USA U24 Women’s team, Coaching Harvard Quasar, played on Columbia Chimera</t>
+  </si>
+  <si>
+    <t>My name contains all the vowels + Y</t>
+  </si>
+  <si>
+    <t>Jaelee Cruz</t>
+  </si>
+  <si>
+    <t>Jae</t>
+  </si>
+  <si>
+    <t>jay-lee cruise</t>
+  </si>
+  <si>
+    <t>Medford</t>
+  </si>
+  <si>
+    <t>Brute, Wild Card, League of Shadows, Vice, Boston University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah Henkin </t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Radnor, PA</t>
+  </si>
+  <si>
+    <t>Boston Slow, University of Michigan Flywheel- Player</t>
+  </si>
+  <si>
+    <t>She started playing frisbee with her two brothers in high school!</t>
+  </si>
+  <si>
+    <t>Sarah Jeung</t>
+  </si>
+  <si>
+    <t>sarah jung</t>
+  </si>
+  <si>
+    <t>Brookfield, WI</t>
+  </si>
+  <si>
+    <t>Slow, Obscure</t>
+  </si>
+  <si>
+    <t>As a new college grad I worked on the first ever smart phone based ultrasound system.</t>
+  </si>
+  <si>
+    <t>Alex Rowell</t>
+  </si>
+  <si>
+    <t>they/them</t>
+  </si>
+  <si>
+    <t>South Portland, Maine</t>
+  </si>
+  <si>
+    <t>The Buoy Association, Frolic, Player on Carleton Eclipse from 2019-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tess Johnson </t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>Siege 2016+2017, Slow 2018+2019, Sprocket 2021+2023, UMass Zoola (player)</t>
+  </si>
+  <si>
+    <t>Caitlin O'Connell</t>
+  </si>
+  <si>
+    <t>Albany, NY</t>
+  </si>
+  <si>
+    <t>Frolic</t>
+  </si>
+  <si>
+    <t>Current: Frolic. Past: Brute Squad, Slow, University of Vermont (player)</t>
+  </si>
+  <si>
+    <t>Sophie Knowles</t>
+  </si>
+  <si>
+    <t>Columbus, Ohio</t>
+  </si>
+  <si>
+    <t>Brute Squad, Case Western Reserve University Fighting Gobies</t>
+  </si>
+  <si>
+    <t>Tahlia Quartin</t>
+  </si>
+  <si>
+    <t>Chewy</t>
+  </si>
+  <si>
+    <t>tall-ee-uh</t>
+  </si>
+  <si>
+    <t>Palmetto Bay, FL</t>
+  </si>
+  <si>
+    <t>Vice</t>
+  </si>
+  <si>
+    <t>Sprocket, Brandeis Banshee</t>
+  </si>
+  <si>
+    <t>Shirlee Wohl</t>
+  </si>
+  <si>
+    <t>Williston, VT</t>
+  </si>
+  <si>
+    <t>Emma Palacio</t>
+  </si>
+  <si>
+    <t>emma pah-la-see-o</t>
+  </si>
+  <si>
+    <t>Use name, NOT pronouns</t>
+  </si>
+  <si>
+    <t>Boston Slow, Adelphos, Philadelphia Green, Independence, Temple - undergrad, Northeastern - grad</t>
+  </si>
+  <si>
+    <t>Ethan Fortin</t>
+  </si>
+  <si>
+    <t>ethan four-tin</t>
+  </si>
+  <si>
+    <t>he/him</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Ryan Cardinal</t>
+  </si>
+  <si>
+    <t>rye-en card-in-ahl</t>
+  </si>
+  <si>
+    <t>Hannah Baranes</t>
+  </si>
+  <si>
+    <t>Han-ah ba-ran-es</t>
+  </si>
+  <si>
+    <t>Jake Arwe</t>
+  </si>
+  <si>
+    <t>jake ahr-wee</t>
   </si>
   <si>
     <t>AWAY TEAM ROSTER</t>
@@ -439,10 +868,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    <numFmt numFmtId="166" formatCode="mmmm d, yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -520,9 +951,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <b/>
@@ -537,16 +977,12 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,12 +997,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <bottom style="thin">
@@ -595,11 +1037,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -651,8 +1123,11 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -663,11 +1138,26 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -676,40 +1166,49 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -718,33 +1217,81 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8212,14 +8759,18 @@
         <v>34</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17">
+        <v>45451.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5" ht="5.25" customHeight="1">
       <c r="A5" s="15"/>
@@ -8227,39 +8778,47 @@
       <c r="C5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="22" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
     </row>
     <row r="11" ht="5.25" customHeight="1">
       <c r="A11" s="15"/>
@@ -8267,65 +8826,71 @@
       <c r="C11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>41</v>
+      <c r="A12" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>42</v>
+      <c r="A13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>43</v>
+      <c r="A14" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>44</v>
+      <c r="A15" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>45</v>
+      <c r="A16" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>46</v>
+      <c r="A17" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
-        <v>47</v>
+      <c r="A18" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>48</v>
+      <c r="A19" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>49</v>
+      <c r="A20" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" ht="5.25" customHeight="1">
       <c r="A21" s="15"/>
@@ -8333,30 +8898,36 @@
       <c r="C21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>50</v>
+      <c r="A22" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>51</v>
+      <c r="A23" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>52</v>
+      <c r="A24" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>53</v>
+      <c r="A25" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" ht="5.25" customHeight="1">
       <c r="A26" s="15"/>
@@ -8364,55 +8935,59 @@
       <c r="C26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="24"/>
+      <c r="B30" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="24"/>
+      <c r="B31" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="C31" s="30"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>49</v>
-      </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="27"/>
     </row>
     <row r="34" ht="5.25" customHeight="1">
       <c r="A34" s="15"/>
@@ -8420,53 +8995,53 @@
       <c r="C34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="s">
-        <v>59</v>
+      <c r="A36" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="26" t="s">
-        <v>60</v>
+      <c r="A37" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="s">
-        <v>61</v>
+      <c r="A38" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="B38" s="16"/>
-      <c r="C38" s="25"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39">
-      <c r="A39" s="26" t="s">
-        <v>62</v>
+      <c r="A39" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="26" t="s">
-        <v>63</v>
+      <c r="A40" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41">
-      <c r="A41" s="26" t="s">
-        <v>64</v>
+      <c r="A41" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="B41" s="16"/>
-      <c r="C41" s="25"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" ht="5.25" customHeight="1">
       <c r="A42" s="15"/>
@@ -8474,32 +9049,32 @@
       <c r="C42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44">
-      <c r="A44" s="26" t="s">
-        <v>66</v>
+      <c r="A44" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="26" t="s">
-        <v>67</v>
+      <c r="A45" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="B45" s="16"/>
-      <c r="C45" s="25"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
-        <v>49</v>
+      <c r="A46" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="B46" s="16"/>
-      <c r="C46" s="25"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" ht="5.25" customHeight="1">
       <c r="A47" s="15"/>
@@ -8507,32 +9082,36 @@
       <c r="C47" s="15"/>
     </row>
     <row r="48">
-      <c r="A48" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>69</v>
+      <c r="A49" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="C49" s="26" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="26" t="s">
-        <v>70</v>
+      <c r="A50" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="C50" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="26" t="s">
-        <v>71</v>
+      <c r="A51" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
+      <c r="C51" s="27"/>
     </row>
     <row r="52" ht="5.25" customHeight="1">
       <c r="A52" s="15"/>
@@ -8540,24 +9119,24 @@
       <c r="C52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
-        <v>72</v>
+      <c r="A53" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="17"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55">
-      <c r="A55" s="17"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
     </row>
     <row r="56">
-      <c r="A56" s="17"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8602,126 +9181,146 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="34"/>
+      <c r="A3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="34"/>
+      <c r="A5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="34"/>
+      <c r="A6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="34"/>
+      <c r="A8" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="34"/>
+      <c r="A11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>81</v>
+      <c r="A14" s="24" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -8734,6 +9333,125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.0"/>
+    <col customWidth="1" min="2" max="2" width="29.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" ht="5.25" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" ht="5.25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" ht="5.25" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="27"/>
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="27"/>
+      <c r="B17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Plane,Car,Train,Bus"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8759,539 +9477,958 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="38"/>
+        <v>108</v>
+      </c>
+      <c r="C2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="47"/>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="50">
+        <v>45451.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="42"/>
+      <c r="A5" s="49"/>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>85</v>
+      <c r="A6" s="49" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>86</v>
+      <c r="A7" s="49" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>87</v>
+      <c r="A8" s="49" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>100</v>
+      <c r="A10" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="A11" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
+      <c r="A12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="58">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="A13" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="A14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="58">
+        <v>8.0</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
     </row>
     <row r="15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="A15" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="56">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
+      <c r="A16" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="58">
+        <v>13.0</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="A17" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="56">
+        <v>15.0</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="A18" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="56">
+        <v>16.0</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="A19" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="56">
+        <v>17.0</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="57"/>
     </row>
     <row r="20">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="A20" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="58">
+        <v>19.0</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="A21" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="56">
+        <v>23.0</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="A22" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="58">
+        <v>24.0</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="A23" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="56">
+        <v>29.0</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
+      <c r="A24" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="56">
+        <v>30.0</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="A25" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="56">
+        <v>32.0</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="A26" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="58">
+        <v>33.0</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="A27" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="56">
+        <v>36.0</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="55"/>
+      <c r="K27" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
+      <c r="A28" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="56">
+        <v>37.0</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="57"/>
+      <c r="I28" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
+      <c r="A29" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="56">
+        <v>45.0</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
+      <c r="A30" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="58">
+        <v>47.0</v>
+      </c>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="55"/>
+      <c r="K30" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
+      <c r="A31" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="56">
+        <v>51.0</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="55"/>
+      <c r="K31" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32">
-      <c r="A32" s="50"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
+      <c r="A32" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="58">
+        <v>52.0</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" s="57"/>
+      <c r="K32" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
+      <c r="A33" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="56">
+        <v>55.0</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
+      <c r="A34" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="58">
+        <v>69.0</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="A35" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="64">
+        <v>71.0</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
+      <c r="A36" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="58">
+        <v>76.0</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="57"/>
     </row>
     <row r="37">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
     </row>
     <row r="38">
-      <c r="A38" s="50"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="A38" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
     </row>
     <row r="39">
-      <c r="A39" s="50"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
+      <c r="A39" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
     </row>
     <row r="40">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
+      <c r="A40" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="C41" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9300,125 +10437,6 @@
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3">
       <formula1>"Atlanta,Austin,Columbus,DC,Indianapolis,Minnesota,Milwaukee,Nashville,New York,Philadelphia,Portland,Raleigh"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="35.0"/>
-    <col customWidth="1" min="2" max="2" width="29.88"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" ht="5.25" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" ht="5.25" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" ht="5.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Plane,Car,Train,Bus"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -9451,539 +10469,539 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="38"/>
+        <v>253</v>
+      </c>
+      <c r="C2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="47"/>
     </row>
     <row r="4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="67"/>
     </row>
     <row r="5">
-      <c r="A5" s="42"/>
+      <c r="A5" s="49"/>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>111</v>
+      <c r="A6" s="49" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>86</v>
+      <c r="A7" s="49" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>87</v>
+      <c r="A8" s="49" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>100</v>
+      <c r="A10" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
     </row>
     <row r="13">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
     </row>
     <row r="14">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
     </row>
     <row r="15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
     </row>
     <row r="16">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
     </row>
     <row r="17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
     </row>
     <row r="18">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
     </row>
     <row r="21">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
     </row>
     <row r="22">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
     </row>
     <row r="24">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
     </row>
     <row r="25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
     </row>
     <row r="26">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
     </row>
     <row r="27">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
     </row>
     <row r="28">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
     </row>
     <row r="29">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
     </row>
     <row r="30">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
     </row>
     <row r="31">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32">
-      <c r="A32" s="50"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
     </row>
     <row r="33">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
     </row>
     <row r="34">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
     </row>
     <row r="35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
     </row>
     <row r="36">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
     </row>
     <row r="38">
-      <c r="A38" s="50"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
     </row>
     <row r="39">
-      <c r="A39" s="50"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
     </row>
     <row r="40">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
